--- a/Excel Files/DistanceMatrix.xlsx
+++ b/Excel Files/DistanceMatrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -82,7 +82,7 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -136,16 +136,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,303 +337,233 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="A15:F15"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F6:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.14"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="0" t="n">
         <v>10250</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="0" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="0" t="n">
         <v>10708</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="0" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="0" t="n">
         <v>9050</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="0" t="n">
         <v>401</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="0" t="n">
         <v>9003</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="0" t="n">
         <v>401</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>8600</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="0" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>8600</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="0" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="0" t="n">
         <v>1650</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="0" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="0" t="n">
         <v>1650</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="0" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="n">
+      <c r="C10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>9000</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="0" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>9000</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="0" t="n">
         <v>999</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
